--- a/Batch 58.xlsx
+++ b/Batch 58.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>com.cogent.employeemanagementsystem.service</t>
   </si>
@@ -198,6 +198,154 @@
   </si>
   <si>
     <t>static : we will only one copy .</t>
+  </si>
+  <si>
+    <t>when we will do overriding : 
+it will call the method from the empl : ref : do u have an object ===&gt; yes ===&gt; of which type : Employee ===&gt; Employee type.</t>
+  </si>
+  <si>
+    <t>inheritance:</t>
+  </si>
+  <si>
+    <t>it is used for reusability.</t>
+  </si>
+  <si>
+    <t>1. multilevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. single </t>
+  </si>
+  <si>
+    <t>3. hierarchical</t>
+  </si>
+  <si>
+    <t>Tightly coupled.</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Downcasting</t>
+  </si>
+  <si>
+    <t>upcasting</t>
+  </si>
+  <si>
+    <t>Parent ref = new Child();</t>
+  </si>
+  <si>
+    <t>Child c = new Parent();</t>
+  </si>
+  <si>
+    <t>not valid one.</t>
+  </si>
+  <si>
+    <t>Child c = (Child) ref;</t>
+  </si>
+  <si>
+    <t>Final Keyword :</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>variable/ref</t>
+  </si>
+  <si>
+    <t>we can't exend to that class / we can't use that class as a base class.</t>
+  </si>
+  <si>
+    <t>can't override the method.</t>
+  </si>
+  <si>
+    <t>we can't change the value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">only specifications </t>
+  </si>
+  <si>
+    <t>only method declarations :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBI : </t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank :</t>
+  </si>
+  <si>
+    <t>Home Loan : 4</t>
+  </si>
+  <si>
+    <t>Saving : 6</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Java Application</t>
+  </si>
+  <si>
+    <t>specification / contract terms.</t>
+  </si>
+  <si>
+    <t>If a class is going to implement the interface then the class has to override all the methods from the interface.</t>
+  </si>
+  <si>
+    <t>if we will not implement all the methods then it will force u to mark that class as an abstract class.</t>
+  </si>
+  <si>
+    <t>EmployeeRepository</t>
+  </si>
+  <si>
+    <t>Abstract Class</t>
+  </si>
+  <si>
+    <t>it can have both abstract + non abstract methods.</t>
+  </si>
+  <si>
+    <t>abstract method: doesn't have def</t>
+  </si>
+  <si>
+    <t>non abstract method/concrete method: it will have the method defi.</t>
+  </si>
+  <si>
+    <t>we can declare the fields.</t>
+  </si>
+  <si>
+    <t>we can have static / final methods.</t>
+  </si>
+  <si>
+    <t>we can have static and final variable.</t>
+  </si>
+  <si>
+    <t>can't create the instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can create a reference </t>
+  </si>
+  <si>
+    <t>we can declare the constructor.</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Abstractclass</t>
+  </si>
+  <si>
+    <t>Concrete Class</t>
   </si>
 </sst>
 </file>
@@ -259,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -267,11 +415,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,6 +560,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,6 +605,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4450080" y="33162240"/>
+          <a:ext cx="7620" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2011680</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2011680</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="33147000"/>
+          <a:ext cx="0" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:H67"/>
+  <dimension ref="C3:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.3"/>
@@ -860,8 +1254,395 @@
         <v>55</v>
       </c>
     </row>
+    <row r="70" spans="7:7" ht="93" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G80" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="3:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="3:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="3:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="3:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="3:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="17"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G102" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G103" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G107" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G109" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G110" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G111" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G123" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G124" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G125" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" ht="74.400000000000006" x14ac:dyDescent="0.3">
+      <c r="G126" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" ht="74.400000000000006" x14ac:dyDescent="0.3">
+      <c r="G127" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="G147" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" ht="55.8" x14ac:dyDescent="0.3">
+      <c r="G149" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" ht="38.4" x14ac:dyDescent="0.35">
+      <c r="G151" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="G152" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G153" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G154" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G159" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G160" s="24"/>
+    </row>
+    <row r="162" spans="7:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G163" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G164" s="24"/>
+    </row>
+    <row r="166" spans="7:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G167" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G168" s="24"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="G163:G164"/>
+    <mergeCell ref="G167:G168"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>